--- a/SP_Sklad/TempLate/PrihOr.xlsx
+++ b/SP_Sklad/TempLate/PrihOr.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$N$29</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -89,11 +89,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -277,13 +276,6 @@
       <sz val="7"/>
       <name val="Times New Roman Cyr"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -441,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -543,91 +535,23 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -647,6 +571,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -665,6 +592,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -695,6 +625,66 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2112,11 +2102,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:O32"/>
+  <dimension ref="B1:O29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2136,38 +2124,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="92" t="e">
+      <c r="L1" s="70" t="e">
         <f>Enterprise_name</f>
         <v>#NAME?</v>
       </c>
-      <c r="M1" s="92"/>
+      <c r="M1" s="70"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
       <c r="F2" s="2"/>
       <c r="G2" s="8"/>
       <c r="H2" s="22"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
@@ -2180,7 +2168,7 @@
       <c r="H3" s="22"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="86"/>
+      <c r="K3" s="63"/>
       <c r="L3" s="46" t="s">
         <v>10</v>
       </c>
@@ -2199,7 +2187,7 @@
       <c r="H4" s="22"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="86"/>
+      <c r="K4" s="63"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2209,39 +2197,39 @@
         <v>7</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="100"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="78"/>
       <c r="F5" s="10"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="81" t="s">
+      <c r="K5" s="63"/>
+      <c r="L5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
     </row>
     <row r="6" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="94" t="e">
+      <c r="B6" s="72" t="e">
         <f>Enterprise_name</f>
         <v>#NAME?</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="89" t="s">
+      <c r="K6" s="63"/>
+      <c r="L6" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
     </row>
     <row r="7" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
@@ -2255,7 +2243,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="86"/>
+      <c r="K7" s="63"/>
       <c r="L7" s="43" t="s">
         <v>20</v>
       </c>
@@ -2266,47 +2254,47 @@
       <c r="N7" s="44"/>
     </row>
     <row r="8" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="59" t="e">
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80" t="e">
         <f>PayDoc_DOCNUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="I8" s="59"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="42"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="50" t="s">
+      <c r="K8" s="63"/>
+      <c r="L8" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="60" t="e">
+      <c r="M8" s="50" t="e">
         <f>PayDoc_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="N8" s="60"/>
-      <c r="O8" s="51"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="49"/>
     </row>
     <row r="9" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="60" t="e">
+      <c r="E9" s="50" t="e">
         <f>PayDoc_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
-      <c r="K9" s="86"/>
+      <c r="K9" s="63"/>
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
@@ -2321,62 +2309,62 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="36"/>
-      <c r="K10" s="87"/>
+      <c r="K10" s="64"/>
       <c r="L10" s="45"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="66" t="s">
+      <c r="C11" s="85"/>
+      <c r="D11" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="67"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="85"/>
       <c r="G11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="66"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="87"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="64"/>
       <c r="L11" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="83" t="e">
+      <c r="M11" s="59" t="e">
         <f>PayDoc_KaName</f>
         <v>#NAME?</v>
       </c>
-      <c r="N11" s="76"/>
+      <c r="N11" s="51"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="71" t="e">
+      <c r="B12" s="89" t="e">
         <f>PayDoc_schet</f>
         <v>#NAME?</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73" t="e">
+      <c r="C12" s="90"/>
+      <c r="D12" s="91" t="e">
         <f>PayDoc_kau</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="75"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="26" t="e">
         <f>PayDoc_TOTAL</f>
         <v>#NAME?</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="87"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="64"/>
       <c r="L12" s="27"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
@@ -2388,149 +2376,149 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="84" t="e">
+      <c r="K13" s="63"/>
+      <c r="L13" s="60" t="e">
         <f>CONCATENATE("Підстава :    ",PayDoc_Reason)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
     </row>
     <row r="14" spans="2:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="97" t="e">
+      <c r="B14" s="75" t="e">
         <f>CONCATENATE("Прийнято від: ",PayDoc_KaName)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="63" t="e">
+      <c r="B15" s="83" t="e">
         <f>CONCATENATE("Підстава: ",PayDoc_Reason)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="61" t="e">
+      <c r="B17" s="81" t="e">
         <f>CONCATENATE("Сума: ",PayDoc_CurrName)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
     </row>
     <row r="18" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="91"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="79" t="e">
+      <c r="K19" s="63"/>
+      <c r="L19" s="55" t="e">
         <f>CONCATENATE("Сума: ",PayDoc_CurrName)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
     </row>
     <row r="20" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="76" t="e">
+      <c r="C20" s="51" t="e">
         <f>PayDoc_NOTES</f>
         <v>#NAME?</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="38"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="86"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="63"/>
       <c r="L21" s="31"/>
       <c r="M21" s="20" t="s">
         <v>16</v>
@@ -2539,15 +2527,15 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="39"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="86"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="63"/>
       <c r="L22" s="31"/>
       <c r="M22" s="33"/>
       <c r="N22" s="29"/>
@@ -2562,7 +2550,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="86"/>
+      <c r="K23" s="63"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2580,7 +2568,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="86"/>
+      <c r="K24" s="63"/>
       <c r="L24" s="15" t="s">
         <v>5</v>
       </c>
@@ -2599,28 +2587,28 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="54" t="s">
+      <c r="K25" s="63"/>
+      <c r="L25" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="M25" s="55"/>
+      <c r="M25" s="96"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D26" s="2"/>
-      <c r="E26" s="56" t="s">
+      <c r="E26" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="86"/>
-      <c r="M26" s="53" t="s">
+      <c r="K26" s="63"/>
+      <c r="M26" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="N26" s="53"/>
+      <c r="N26" s="94"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="17" t="s">
@@ -2631,23 +2619,23 @@
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="57" t="s">
+      <c r="K27" s="63"/>
+      <c r="L27" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="M27" s="58"/>
+      <c r="M27" s="99"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E28" s="52" t="s">
+      <c r="E28" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="K28" s="86"/>
-      <c r="M28" s="53" t="s">
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="K28" s="63"/>
+      <c r="M28" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="N28" s="53"/>
+      <c r="N28" s="94"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="18"/>
@@ -2659,17 +2647,29 @@
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
-      <c r="K29" s="88"/>
+      <c r="K29" s="65"/>
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D32" s="47"/>
-      <c r="G32" s="48"/>
-    </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B17:J18"/>
+    <mergeCell ref="B15:J16"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="C20:J22"/>
     <mergeCell ref="L19:N20"/>
@@ -2686,22 +2686,6 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="B17:J18"/>
-    <mergeCell ref="B15:J16"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="L27:M27"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
